--- a/DOC/05作成資料/20成果物/010_RD/要件定義.xlsx
+++ b/DOC/05作成資料/20成果物/010_RD/要件定義.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-3140" windowWidth="28800" windowHeight="17460"/>
+    <workbookView xWindow="480" yWindow="980" windowWidth="26280" windowHeight="15100"/>
   </bookViews>
   <sheets>
     <sheet name="要件定義" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>要件定義</t>
   </si>
@@ -139,13 +139,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>初期ユーザ</t>
-    <rPh sb="0" eb="2">
-      <t>ショk</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザ変更</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -224,33 +217,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>システム導入時に使用するユーザを事前に１ユーザ登録する。</t>
-    <rPh sb="4" eb="7">
-      <t>ドウニュウジn</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジゼn</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>トウロk</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログアウトする。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>監視装置から温湿度を取得する。</t>
-    <rPh sb="0" eb="4">
-      <t>カn</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シュトk</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>温湿度が警告値を超過した場合、警告を表示する。</t>
     <rPh sb="0" eb="3">
       <t>オンs</t>
@@ -305,45 +271,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>警告値を超過した際にメール配信するメールアドレスを設定する。</t>
-    <rPh sb="0" eb="3">
-      <t>ケイコクチ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>チョ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>セッテ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>収集したトレンドデータを一定期間システムで保持する。</t>
-    <rPh sb="0" eb="2">
-      <t>シュウシュ</t>
-    </rPh>
-    <rPh sb="12" eb="16">
-      <t>イッテ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>収集したトレンドデータの期間を指定してグラフ表示する。</t>
-    <rPh sb="0" eb="2">
-      <t>シュウシュ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>キカn</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シテ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>温湿度収集周期を設定する。</t>
     <rPh sb="0" eb="3">
       <t>オンシt</t>
@@ -377,114 +304,423 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザのパスワードを変更する。</t>
-    <rPh sb="10" eb="12">
-      <t>ヘンコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>初期ユーザ以外のユーザを削除する。</t>
+    <t>装置設定変更</t>
+  </si>
+  <si>
+    <t>初期ユーザ以外のユーザを削除する。
+管理者ユーザは他の管理者ユーザ、一般ユーザの削除を可能とする。
+一般ユーザは自ユーザの削除を可能とする。</t>
     <rPh sb="0" eb="2">
       <t>ショk</t>
     </rPh>
     <rPh sb="5" eb="7">
       <t>イガ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ名、パスワードを用いてログインする。ログイン後、ユーザに応じた機能が利用可能とする。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トレンドデータ表示、csv出力、自ユーザのパスワード変更のみ利用可能とする。</t>
+    <rPh sb="40" eb="42">
+      <t>サクzy</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>サクジョヲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期ユーザ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期ユーザ以外のユーザのパスワードを変更する。
+管理者ユーザは他の管理者ユーザ、一般ユーザのパスワード変更を可能とする。
+一般ユーザは自パスワードの変更を可能とする。</t>
+    <rPh sb="18" eb="20">
+      <t>ヘンコ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>カn</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>カンr</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>イッパn</t>
+    </rPh>
+    <rPh sb="51" eb="56">
+      <t>ヘンコ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>イッパンユ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="74" eb="79">
+      <t>ヘンコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録、変更、削除を利用可能とする。
+システム導入時に使用するユーザを事前に１ユーザ登録する。</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンコ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクzy</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>リヨ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>r</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ドウニュウジn</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジゼn</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>トウロk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ名、パスワードを用いてログインする。
+ログイン後、ユーザに応じた機能を利用可能とする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウトする。
+ログアウト後、ログイン以外の機能を利用不可とする。</t>
+    <rPh sb="14" eb="15">
+      <t>５</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イガ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キノ</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>リヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>監視装置の装置名、IPアドレス登録をする。
+同時に***台まで登録可能とする。</t>
+    <rPh sb="5" eb="8">
+      <t>ソウch</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロk</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ドウジn</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="31" eb="35">
+      <t>トウロk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>監視装置の装置名、IPアドレス編集をする。
+同時に***台まで変更可能とする。</t>
+    <rPh sb="5" eb="8">
+      <t>ソウch</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンシュ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヘンコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>監視装置の装置名、IPアドレス削除をする。
+同時に***台まで削除可能とする。</t>
+    <rPh sb="5" eb="8">
+      <t>ソウch</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サk</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">監視装置から温湿度を取得する。
+</t>
+    <rPh sb="0" eb="4">
+      <t>カn</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュトk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補足</t>
+    <rPh sb="0" eb="2">
+      <t>ホソk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ収集周期を設定する。
+設定された周期で***秒以内にデータ収集を開始する。</t>
+    <rPh sb="3" eb="5">
+      <t>シュウシュ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウk</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッテ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッテ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>sy</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ビョ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イナ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ収集周期に従って温湿度を収集する</t>
+    <rPh sb="3" eb="5">
+      <t>オンシt</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウk</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シタガッt</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オンシツドヲ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュウシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴データを収集する。</t>
+    <rPh sb="0" eb="2">
+      <t>リレk</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">全ての機能を利用可能とする。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>***</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ユーザまで登録可能とする。</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>スベt</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>リヨ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>トウロk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">トレンドデータ表示、csv出力、パスワード変更を利用可能とする。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>***</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ユーザまで登録可能とする。</t>
+    </r>
     <rPh sb="13" eb="15">
       <t>シュt</t>
     </rPh>
-    <rPh sb="16" eb="17">
-      <t>ジユーザノ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
+    <rPh sb="21" eb="23">
       <t>ヘンコ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>全ての機能が利用可能とする。</t>
-    <rPh sb="0" eb="1">
-      <t>スベt</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>リヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>監視装置の装置名、IPアドレス登録をする。</t>
-    <rPh sb="5" eb="8">
-      <t>ソウch</t>
-    </rPh>
-    <rPh sb="15" eb="17">
+    <r>
+      <t xml:space="preserve">警告値を超過した際にメール配信するメールアドレスを設定する。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>***</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>件まで登録可能とする。</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>ケイコクチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チョ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セッテ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
       <t>トウロk</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>監視装置の装置名、IPアドレス編集をする。</t>
-    <rPh sb="5" eb="8">
-      <t>ソウch</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヘンシュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>監視装置の装置名、IPアドレス削除をする。</t>
-    <rPh sb="5" eb="8">
-      <t>ソウch</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>サk</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>装置設定変更</t>
-  </si>
-  <si>
-    <t>収集したトレンドデータを一定期間監視装置で保持する。</t>
+    <rPh sb="39" eb="41">
+      <t>カノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>収集したトレンドデータの期間を指定して</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>折れ線グラフ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を表示する。</t>
+    </r>
     <rPh sb="0" eb="2">
       <t>シュウシュ</t>
     </rPh>
-    <rPh sb="12" eb="16">
-      <t>イッテ</t>
-    </rPh>
-    <rPh sb="16" eb="20">
-      <t>カn</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>温湿度収集周期に従って温湿度を収集する。</t>
-    <rPh sb="0" eb="5">
-      <t>オンシt</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュウk</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>シタガッt</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>オンシツドヲ</t>
+    <rPh sb="12" eb="14">
+      <t>キカn</t>
     </rPh>
     <rPh sb="15" eb="17">
+      <t>シテ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オr</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>収集したトレンドデータを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>***</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日分、日毎にcsv形式で保存する。</t>
+    </r>
+    <rPh sb="0" eb="2">
       <t>シュウシュ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ニch</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ホゾn</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -493,7 +729,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,11 +761,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -640,51 +889,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -995,7 +1245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G44"/>
+  <dimension ref="B1:H44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -1004,491 +1254,613 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="27.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="79.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="12" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B3" s="11"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="5" t="s">
+      <c r="H2" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="9"/>
-      <c r="C4" s="4" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="2:8" ht="28" x14ac:dyDescent="0.15">
+      <c r="B4" s="11">
+        <f>ROW(B4)-3</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="2:8" ht="28" x14ac:dyDescent="0.15">
+      <c r="B5" s="11">
+        <f t="shared" ref="B5:B26" si="0">ROW(B5)-3</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="2:8" ht="28" x14ac:dyDescent="0.15">
+      <c r="B6" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="2:8" ht="42" x14ac:dyDescent="0.15">
+      <c r="B7" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="F7" s="12"/>
+      <c r="G7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="2:8" ht="42" x14ac:dyDescent="0.15">
+      <c r="B8" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="2:8" ht="28" x14ac:dyDescent="0.15">
+      <c r="B9" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="2:8" ht="28" x14ac:dyDescent="0.15">
+      <c r="B10" s="11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="2:8" ht="28" x14ac:dyDescent="0.15">
+      <c r="B11" s="11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="2:8" ht="28" x14ac:dyDescent="0.15">
+      <c r="B12" s="11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="2:8" ht="28" x14ac:dyDescent="0.15">
+      <c r="B13" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="2:8" ht="28" x14ac:dyDescent="0.15">
+      <c r="B14" s="11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B16" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3" t="s">
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="11">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="2:8" ht="28" x14ac:dyDescent="0.15">
+      <c r="B18" s="11">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B19" s="11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="11">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B21" s="11">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B22" s="11">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="11">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B25" s="11">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="2:8" ht="28" x14ac:dyDescent="0.15">
+      <c r="B26" s="11">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3" t="s">
+      <c r="C26" s="12"/>
+      <c r="D26" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="3" t="s">
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B24" s="2"/>
-      <c r="C24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B28" s="2"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B29" s="2"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B30" s="2"/>
-      <c r="C30" s="7"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B31" s="2"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B32" s="2"/>
-      <c r="C32" s="7"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B33" s="2"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B34" s="2"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B35" s="2"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B36" s="2"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="2"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="2"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="2"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="2"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="2"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="2"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="2"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B44" s="2"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B28" s="12"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B29" s="12"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="12"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="12"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B32" s="12"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B33" s="12"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B34" s="12"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B35" s="12"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B36" s="12"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B37" s="12"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B38" s="12"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B39" s="12"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B40" s="12"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B41" s="12"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B42" s="12"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B43" s="12"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B44" s="12"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/DOC/05作成資料/20成果物/010_RD/要件定義.xlsx
+++ b/DOC/05作成資料/20成果物/010_RD/要件定義.xlsx
@@ -1,27 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tatsuyawakayama/Library/Mobile Documents/com~apple~CloudDocs/Work/RemoteMonitoringSystem/DOC/05作成資料/20成果物/010_RD/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="980" windowWidth="26280" windowHeight="15100"/>
+    <workbookView xWindow="480" yWindow="975" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="要件定義" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">要件定義!$B$1:$G$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">要件定義!$B$1:$G$27</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -30,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <t>要件定義</t>
   </si>
@@ -290,16 +282,6 @@
     <t>温湿度の校正をする。</t>
     <rPh sb="0" eb="6">
       <t>オンs</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>温湿度をcsv出力する</t>
-    <rPh sb="0" eb="3">
-      <t>オンシt</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シュt</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -506,25 +488,6 @@
   </si>
   <si>
     <t>　　</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ収集周期に従って温湿度を収集する</t>
-    <rPh sb="3" eb="5">
-      <t>オンシt</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュウk</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>シタガッt</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>オンシツドヲ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シュウシュ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -721,6 +684,170 @@
     </rPh>
     <rPh sb="27" eb="29">
       <t>ホゾn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最短周期はNo22に影響あり</t>
+    <rPh sb="0" eb="2">
+      <t>サイタン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>エイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自ユーザを削除した場合は、ログアウトまでするイメージ？</t>
+    <rPh sb="0" eb="1">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>温湿度の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>校正値を設定する。</t>
+    </r>
+    <rPh sb="0" eb="6">
+      <t>オンs</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>温湿度をcsv出力する。</t>
+    <rPh sb="0" eb="3">
+      <t>オンシt</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュt</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ収集周期に従って温湿度を収集する。</t>
+    <rPh sb="3" eb="5">
+      <t>オンシt</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウk</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シタガッt</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オンシツドヲ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュウシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>csv形式での保存は何日分でも保存できるでよいと思う。
+ただし、収集は1年分とかで、定期的に古いデータを削除とするほうがよいのでは？
+また、csv形式に保存するのは纏めて1ファイルではだめ？
+例：
+1データ30byte*8640(10秒を最短周期とした場合1日分)*1000(1000台まで登録可能なら)=259200000(1日分のMAX)
+1年で94608000000byte</t>
+    <rPh sb="3" eb="5">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ナンニチブン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シュウシュウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ネンブン</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>テイキテキ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>フル</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>マト</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>サイタン</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>シュウキ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="164" eb="166">
+      <t>ニチブン</t>
+    </rPh>
+    <rPh sb="173" eb="174">
+      <t>ネン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -945,8 +1072,36 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1245,24 +1400,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H44"/>
+  <dimension ref="B1:H45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="64" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="2"/>
+    <col min="8" max="8" width="28.25" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.15">
@@ -1286,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.15">
@@ -1304,7 +1459,7 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="2:8" ht="28" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:8" ht="27" x14ac:dyDescent="0.15">
       <c r="B4" s="11">
         <f>ROW(B4)-3</f>
         <v>1</v>
@@ -1316,17 +1471,17 @@
         <v>6</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="2:8" ht="28" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8" ht="27" x14ac:dyDescent="0.15">
       <c r="B5" s="11">
-        <f t="shared" ref="B5:B26" si="0">ROW(B5)-3</f>
+        <f t="shared" ref="B5:B27" si="0">ROW(B5)-3</f>
         <v>2</v>
       </c>
       <c r="C5" s="12"/>
@@ -1338,11 +1493,11 @@
         <v>23</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="2:8" ht="28" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:8" ht="27" x14ac:dyDescent="0.15">
       <c r="B6" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1354,11 +1509,11 @@
         <v>24</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="2:8" ht="42" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B7" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1370,11 +1525,11 @@
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="2:8" ht="42" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B8" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1386,11 +1541,13 @@
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="2:8" ht="28" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="27" x14ac:dyDescent="0.15">
       <c r="B9" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1402,11 +1559,11 @@
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="2:8" ht="28" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:8" ht="27" x14ac:dyDescent="0.15">
       <c r="B10" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1418,11 +1575,11 @@
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="2:8" ht="28" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:8" ht="27" x14ac:dyDescent="0.15">
       <c r="B11" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1436,11 +1593,11 @@
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="2:8" ht="28" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:8" ht="27" x14ac:dyDescent="0.15">
       <c r="B12" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1452,11 +1609,11 @@
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="2:8" ht="28" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:8" ht="27" x14ac:dyDescent="0.15">
       <c r="B13" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1468,11 +1625,11 @@
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="2:8" ht="28" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:8" ht="27" x14ac:dyDescent="0.15">
       <c r="B14" s="11">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1486,7 +1643,7 @@
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H14" s="12"/>
     </row>
@@ -1542,7 +1699,7 @@
       </c>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="2:8" ht="28" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:8" ht="27" x14ac:dyDescent="0.15">
       <c r="B18" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1554,7 +1711,7 @@
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H18" s="13"/>
     </row>
@@ -1572,7 +1729,7 @@
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H19" s="13"/>
     </row>
@@ -1590,7 +1747,7 @@
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H20" s="13"/>
     </row>
@@ -1624,7 +1781,7 @@
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="12" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="H22" s="12"/>
     </row>
@@ -1642,7 +1799,7 @@
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="H23" s="12"/>
     </row>
@@ -1660,7 +1817,7 @@
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="13" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H24" s="13"/>
     </row>
@@ -1670,52 +1827,63 @@
         <v>22</v>
       </c>
       <c r="C25" s="12"/>
-      <c r="D25" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="13" t="s">
-        <v>64</v>
+      <c r="D25" s="12"/>
+      <c r="E25" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="H25" s="13"/>
     </row>
-    <row r="26" spans="2:8" ht="28" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:8" ht="175.5" x14ac:dyDescent="0.15">
       <c r="B26" s="11">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>35</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" s="13"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="12"/>
+        <v>62</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="B27" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
       <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="D27" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="F27" s="12"/>
       <c r="G27" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="13"/>
+        <v>55</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B28" s="12"/>
-      <c r="C28" s="15"/>
+      <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="13"/>
+      <c r="G28" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="H28" s="13"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.15">
@@ -1730,16 +1898,16 @@
     <row r="30" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B30" s="12"/>
       <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B31" s="12"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="12"/>
+      <c r="D31" s="16"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
@@ -1748,7 +1916,7 @@
     <row r="32" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B32" s="12"/>
       <c r="C32" s="15"/>
-      <c r="D32" s="16"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
@@ -1757,7 +1925,7 @@
     <row r="33" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B33" s="12"/>
       <c r="C33" s="15"/>
-      <c r="D33" s="12"/>
+      <c r="D33" s="16"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
@@ -1862,9 +2030,18 @@
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
     </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B45" s="12"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DOC/05作成資料/20成果物/010_RD/要件定義.xlsx
+++ b/DOC/05作成資料/20成果物/010_RD/要件定義.xlsx
@@ -688,19 +688,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>最短周期はNo22に影響あり</t>
-    <rPh sb="0" eb="2">
-      <t>サイタン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュウキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>エイキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>自ユーザを削除した場合は、ログアウトまでするイメージ？</t>
     <rPh sb="0" eb="1">
       <t>ジ</t>
@@ -848,6 +835,19 @@
     </rPh>
     <rPh sb="173" eb="174">
       <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最短周期はNo23に影響あり</t>
+    <rPh sb="0" eb="2">
+      <t>サイタン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>エイキョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1403,8 +1403,8 @@
   <dimension ref="B1:H45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1544,7 +1544,7 @@
         <v>44</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="27" x14ac:dyDescent="0.15">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H22" s="12"/>
     </row>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H23" s="12"/>
     </row>
@@ -1817,7 +1817,7 @@
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H24" s="13"/>
     </row>
@@ -1852,7 +1852,7 @@
         <v>62</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="27" x14ac:dyDescent="0.15">
@@ -1872,7 +1872,7 @@
         <v>55</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.15">

--- a/DOC/05作成資料/20成果物/010_RD/要件定義.xlsx
+++ b/DOC/05作成資料/20成果物/010_RD/要件定義.xlsx
@@ -10,7 +10,7 @@
     <sheet name="要件定義" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">要件定義!$B$1:$G$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">要件定義!$B$1:$G$30</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="79">
   <si>
     <t>要件定義</t>
   </si>
@@ -484,10 +484,6 @@
     <rPh sb="35" eb="37">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -848,6 +844,83 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>エイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トレーサビリティ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トレンドデータ送信</t>
+    <rPh sb="7" eb="9">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ収集したデータを即座に送信する。</t>
+    <rPh sb="3" eb="5">
+      <t>シュウシュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソクザ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴データ送信</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバと接続したタイミングに未送信の履歴データを送信する。</t>
+    <rPh sb="4" eb="6">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ソウシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1016,7 +1089,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1063,6 +1136,19 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1400,11 +1486,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H45"/>
+  <dimension ref="B1:N47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1420,12 +1506,12 @@
     <col min="9" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1443,8 +1529,16 @@
       <c r="H2" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I2" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="21"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
       <c r="D3" s="10" t="s">
@@ -1458,8 +1552,26 @@
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I3" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="27" x14ac:dyDescent="0.15">
       <c r="B4" s="11">
         <f>ROW(B4)-3</f>
         <v>1</v>
@@ -1478,10 +1590,16 @@
         <v>47</v>
       </c>
       <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+    </row>
+    <row r="5" spans="2:14" ht="27" x14ac:dyDescent="0.15">
       <c r="B5" s="11">
-        <f t="shared" ref="B5:B27" si="0">ROW(B5)-3</f>
+        <f t="shared" ref="B5:B30" si="0">ROW(B5)-3</f>
         <v>2</v>
       </c>
       <c r="C5" s="12"/>
@@ -1493,11 +1611,17 @@
         <v>23</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+    </row>
+    <row r="6" spans="2:14" ht="27" x14ac:dyDescent="0.15">
       <c r="B6" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1509,11 +1633,17 @@
         <v>24</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="2:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+    </row>
+    <row r="7" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B7" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1528,8 +1658,14 @@
         <v>46</v>
       </c>
       <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="2:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+    </row>
+    <row r="8" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B8" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1544,10 +1680,16 @@
         <v>44</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+    </row>
+    <row r="9" spans="2:14" ht="27" x14ac:dyDescent="0.15">
       <c r="B9" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1562,8 +1704,14 @@
         <v>48</v>
       </c>
       <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+    </row>
+    <row r="10" spans="2:14" ht="27" x14ac:dyDescent="0.15">
       <c r="B10" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1578,8 +1726,14 @@
         <v>49</v>
       </c>
       <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+    </row>
+    <row r="11" spans="2:14" ht="27" x14ac:dyDescent="0.15">
       <c r="B11" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1596,8 +1750,14 @@
         <v>50</v>
       </c>
       <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+    </row>
+    <row r="12" spans="2:14" ht="27" x14ac:dyDescent="0.15">
       <c r="B12" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1612,8 +1772,14 @@
         <v>51</v>
       </c>
       <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+    </row>
+    <row r="13" spans="2:14" ht="27" x14ac:dyDescent="0.15">
       <c r="B13" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1628,8 +1794,14 @@
         <v>52</v>
       </c>
       <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+    </row>
+    <row r="14" spans="2:14" ht="27" x14ac:dyDescent="0.15">
       <c r="B14" s="11">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1646,283 +1818,416 @@
         <v>53</v>
       </c>
       <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B15" s="11">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C15" s="12"/>
-      <c r="D15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13" t="s">
-        <v>38</v>
+      <c r="D15" s="12"/>
+      <c r="E15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B16" s="11">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
+      <c r="D16" s="12" t="s">
+        <v>7</v>
+      </c>
       <c r="E16" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B17" s="11">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C17" s="12"/>
-      <c r="D17" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="D17" s="12"/>
       <c r="E17" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B18" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
+      <c r="D18" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="E18" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="13" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+    </row>
+    <row r="19" spans="2:14" ht="27" x14ac:dyDescent="0.15">
       <c r="B19" s="11">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C19" s="12"/>
-      <c r="D19" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="D19" s="12"/>
       <c r="E19" s="12" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F19" s="12"/>
-      <c r="G19" s="14" t="s">
-        <v>57</v>
+      <c r="G19" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B20" s="11">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="12"/>
-      <c r="G20" s="13" t="s">
-        <v>61</v>
+      <c r="G20" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B21" s="11">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C21" s="12"/>
-      <c r="D21" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13" t="s">
-        <v>41</v>
+      <c r="D21" s="12"/>
+      <c r="E21" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B22" s="11">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
+      <c r="D22" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="E22" s="12" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="F22" s="12"/>
-      <c r="G22" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G22" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B23" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F23" s="12"/>
-      <c r="G23" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G23" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B24" s="11">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="F24" s="12"/>
-      <c r="G24" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" s="13"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G24" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B25" s="11">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="13"/>
-    </row>
-    <row r="26" spans="2:8" ht="175.5" x14ac:dyDescent="0.15">
+      <c r="D25" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B26" s="11">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C26" s="12"/>
+      <c r="C26" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="D26" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+      <c r="H26" s="13"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B27" s="11">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>35</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="12"/>
+        <v>76</v>
+      </c>
+      <c r="H27" s="13"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+    </row>
+    <row r="28" spans="2:14" ht="175.5" x14ac:dyDescent="0.15">
+      <c r="B28" s="11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
       <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+      <c r="D28" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="12"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="12"/>
+        <v>61</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B29" s="11">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
-      <c r="G29" s="13"/>
+      <c r="G29" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="H29" s="13"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="12"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+    </row>
+    <row r="30" spans="2:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="B30" s="11">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="F30" s="12"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G30" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B31" s="12"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="16"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B32" s="12"/>
       <c r="C32" s="15"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B33" s="12"/>
       <c r="C33" s="15"/>
       <c r="D33" s="16"/>
@@ -1930,8 +2235,14 @@
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B34" s="12"/>
       <c r="C34" s="15"/>
       <c r="D34" s="12"/>
@@ -1939,17 +2250,29 @@
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B35" s="12"/>
       <c r="C35" s="15"/>
-      <c r="D35" s="12"/>
+      <c r="D35" s="16"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B36" s="12"/>
       <c r="C36" s="15"/>
       <c r="D36" s="12"/>
@@ -1957,8 +2280,14 @@
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B37" s="12"/>
       <c r="C37" s="15"/>
       <c r="D37" s="12"/>
@@ -1966,8 +2295,14 @@
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B38" s="12"/>
       <c r="C38" s="15"/>
       <c r="D38" s="12"/>
@@ -1975,8 +2310,14 @@
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B39" s="12"/>
       <c r="C39" s="15"/>
       <c r="D39" s="12"/>
@@ -1984,8 +2325,14 @@
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B40" s="12"/>
       <c r="C40" s="15"/>
       <c r="D40" s="12"/>
@@ -1993,8 +2340,14 @@
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B41" s="12"/>
       <c r="C41" s="15"/>
       <c r="D41" s="12"/>
@@ -2002,8 +2355,14 @@
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B42" s="12"/>
       <c r="C42" s="15"/>
       <c r="D42" s="12"/>
@@ -2011,8 +2370,14 @@
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B43" s="12"/>
       <c r="C43" s="15"/>
       <c r="D43" s="12"/>
@@ -2020,8 +2385,14 @@
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B44" s="12"/>
       <c r="C44" s="15"/>
       <c r="D44" s="12"/>
@@ -2029,8 +2400,14 @@
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B45" s="12"/>
       <c r="C45" s="15"/>
       <c r="D45" s="12"/>
@@ -2038,8 +2415,47 @@
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B46" s="12"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B47" s="12"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I2:N2"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/DOC/05作成資料/20成果物/010_RD/要件定義.xlsx
+++ b/DOC/05作成資料/20成果物/010_RD/要件定義.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
   <si>
     <t>要件定義</t>
   </si>
@@ -922,6 +922,10 @@
     <rPh sb="24" eb="26">
       <t>ソウシン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.3～4.10</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1488,9 +1492,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1590,7 +1594,9 @@
         <v>47</v>
       </c>
       <c r="H4" s="11"/>
-      <c r="I4" s="17"/>
+      <c r="I4" s="17">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="J4" s="17"/>
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
@@ -1614,7 +1620,9 @@
         <v>57</v>
       </c>
       <c r="H5" s="12"/>
-      <c r="I5" s="17"/>
+      <c r="I5" s="17">
+        <v>4.8</v>
+      </c>
       <c r="J5" s="17"/>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
@@ -1636,7 +1644,9 @@
         <v>58</v>
       </c>
       <c r="H6" s="12"/>
-      <c r="I6" s="17"/>
+      <c r="I6" s="17">
+        <v>4.8</v>
+      </c>
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
@@ -1658,7 +1668,9 @@
         <v>46</v>
       </c>
       <c r="H7" s="12"/>
-      <c r="I7" s="17"/>
+      <c r="I7" s="17">
+        <v>4.7</v>
+      </c>
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
@@ -1682,7 +1694,9 @@
       <c r="H8" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="17"/>
+      <c r="I8" s="17">
+        <v>4.8</v>
+      </c>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
@@ -1704,7 +1718,9 @@
         <v>48</v>
       </c>
       <c r="H9" s="12"/>
-      <c r="I9" s="17"/>
+      <c r="I9" s="17">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
@@ -1726,7 +1742,9 @@
         <v>49</v>
       </c>
       <c r="H10" s="12"/>
-      <c r="I10" s="17"/>
+      <c r="I10" s="17" t="s">
+        <v>79</v>
+      </c>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
@@ -1750,7 +1768,9 @@
         <v>50</v>
       </c>
       <c r="H11" s="12"/>
-      <c r="I11" s="17"/>
+      <c r="I11" s="17">
+        <v>4.5999999999999996</v>
+      </c>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
@@ -1772,7 +1792,9 @@
         <v>51</v>
       </c>
       <c r="H12" s="12"/>
-      <c r="I12" s="17"/>
+      <c r="I12" s="17">
+        <v>4.5999999999999996</v>
+      </c>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
@@ -1794,7 +1816,9 @@
         <v>52</v>
       </c>
       <c r="H13" s="12"/>
-      <c r="I13" s="17"/>
+      <c r="I13" s="17">
+        <v>4.5999999999999996</v>
+      </c>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
@@ -1818,7 +1842,9 @@
         <v>53</v>
       </c>
       <c r="H14" s="12"/>
-      <c r="I14" s="17"/>
+      <c r="I14" s="17">
+        <v>4.3</v>
+      </c>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
@@ -1864,7 +1890,9 @@
         <v>38</v>
       </c>
       <c r="H16" s="13"/>
-      <c r="I16" s="17"/>
+      <c r="I16" s="17">
+        <v>4.3</v>
+      </c>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
@@ -1886,7 +1914,9 @@
         <v>39</v>
       </c>
       <c r="H17" s="13"/>
-      <c r="I17" s="17"/>
+      <c r="I17" s="17">
+        <v>4.3</v>
+      </c>
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>

--- a/DOC/05作成資料/20成果物/010_RD/要件定義.xlsx
+++ b/DOC/05作成資料/20成果物/010_RD/要件定義.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28209"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tatsuyawakayama/Library/Mobile Documents/com~apple~CloudDocs/Work/RemoteMonitoringSystem/DOC/05作成資料/20成果物/010_RD/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="975" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-32820" yWindow="-2520" windowWidth="28000" windowHeight="14620"/>
   </bookViews>
   <sheets>
     <sheet name="要件定義" sheetId="1" r:id="rId1"/>
@@ -12,8 +17,11 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">要件定義!$B$1:$G$30</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -883,19 +891,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>データ収集したデータを即座に送信する。</t>
-    <rPh sb="3" eb="5">
-      <t>シュウシュウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ソクザ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>履歴データ送信</t>
     <rPh sb="0" eb="2">
       <t>リレキ</t>
@@ -920,6 +915,16 @@
       <t>リレキ</t>
     </rPh>
     <rPh sb="24" eb="26">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>温湿度データを温湿度監視サーバに送信する。</t>
+    <rPh sb="7" eb="12">
+      <t>オンシt</t>
+    </rPh>
+    <rPh sb="16" eb="18">
       <t>ソウシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1489,21 +1494,21 @@
   <dimension ref="B1:N47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <pane ySplit="3" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="64" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.25" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="2"/>
+    <col min="8" max="8" width="28.1640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.15">
@@ -1571,7 +1576,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:14" ht="28" x14ac:dyDescent="0.15">
       <c r="B4" s="11">
         <f>ROW(B4)-3</f>
         <v>1</v>
@@ -1597,7 +1602,7 @@
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="2:14" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:14" ht="28" x14ac:dyDescent="0.15">
       <c r="B5" s="11">
         <f t="shared" ref="B5:B30" si="0">ROW(B5)-3</f>
         <v>2</v>
@@ -1621,7 +1626,7 @@
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="2:14" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:14" ht="28" x14ac:dyDescent="0.15">
       <c r="B6" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1643,7 +1648,7 @@
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:14" ht="42" x14ac:dyDescent="0.15">
       <c r="B7" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1665,7 +1670,7 @@
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:14" ht="42" x14ac:dyDescent="0.15">
       <c r="B8" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1689,7 +1694,7 @@
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="2:14" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:14" ht="28" x14ac:dyDescent="0.15">
       <c r="B9" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1711,7 +1716,7 @@
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="2:14" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:14" ht="28" x14ac:dyDescent="0.15">
       <c r="B10" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1733,7 +1738,7 @@
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
     </row>
-    <row r="11" spans="2:14" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:14" ht="28" x14ac:dyDescent="0.15">
       <c r="B11" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1757,7 +1762,7 @@
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="2:14" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:14" ht="28" x14ac:dyDescent="0.15">
       <c r="B12" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1779,7 +1784,7 @@
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="2:14" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:14" ht="28" x14ac:dyDescent="0.15">
       <c r="B13" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1801,7 +1806,7 @@
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
     </row>
-    <row r="14" spans="2:14" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:14" ht="28" x14ac:dyDescent="0.15">
       <c r="B14" s="11">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1917,7 +1922,7 @@
       <c r="M18" s="17"/>
       <c r="N18" s="17"/>
     </row>
-    <row r="19" spans="2:14" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:14" ht="28" x14ac:dyDescent="0.15">
       <c r="B19" s="11">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2115,7 +2120,7 @@
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="17"/>
@@ -2125,7 +2130,7 @@
       <c r="M27" s="17"/>
       <c r="N27" s="17"/>
     </row>
-    <row r="28" spans="2:14" ht="175.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:14" ht="182" x14ac:dyDescent="0.15">
       <c r="B28" s="11">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2156,12 +2161,12 @@
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="17"/>
@@ -2171,7 +2176,7 @@
       <c r="M29" s="17"/>
       <c r="N29" s="17"/>
     </row>
-    <row r="30" spans="2:14" ht="27" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:14" ht="28" x14ac:dyDescent="0.15">
       <c r="B30" s="11">
         <f t="shared" si="0"/>
         <v>27</v>

--- a/DOC/05作成資料/20成果物/010_RD/要件定義.xlsx
+++ b/DOC/05作成資料/20成果物/010_RD/要件定義.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28209"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tatsuyawakayama/Library/Mobile Documents/com~apple~CloudDocs/Work/RemoteMonitoringSystem/DOC/05作成資料/20成果物/010_RD/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="975" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="480" yWindow="980" windowWidth="20740" windowHeight="15040"/>
   </bookViews>
   <sheets>
     <sheet name="要件定義" sheetId="1" r:id="rId1"/>
@@ -12,8 +17,11 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">要件定義!$B$1:$G$30</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -22,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
   <si>
     <t>要件定義</t>
   </si>
@@ -284,9 +292,6 @@
       <t>オンs</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>装置設定変更</t>
   </si>
   <si>
     <t>初期ユーザ以外のユーザを削除する。
@@ -751,103 +756,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>csv形式での保存は何日分でも保存できるでよいと思う。
-ただし、収集は1年分とかで、定期的に古いデータを削除とするほうがよいのでは？
-また、csv形式に保存するのは纏めて1ファイルではだめ？
-例：
-1データ30byte*8640(10秒を最短周期とした場合1日分)*1000(1000台まで登録可能なら)=259200000(1日分のMAX)
-1年で94608000000byte</t>
-    <rPh sb="3" eb="5">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ナンニチブン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>シュウシュウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ネンブン</t>
-    </rPh>
-    <rPh sb="42" eb="45">
-      <t>テイキテキ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>フル</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>マト</t>
-    </rPh>
-    <rPh sb="96" eb="97">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="117" eb="118">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="119" eb="121">
-      <t>サイタン</t>
-    </rPh>
-    <rPh sb="121" eb="123">
-      <t>シュウキ</t>
-    </rPh>
-    <rPh sb="126" eb="128">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="129" eb="130">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="130" eb="131">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="142" eb="143">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="145" eb="147">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="147" eb="149">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="164" eb="166">
-      <t>ニチブン</t>
-    </rPh>
-    <rPh sb="173" eb="174">
-      <t>ネン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最短周期はNo23に影響あり</t>
-    <rPh sb="0" eb="2">
-      <t>サイタン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュウキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>エイキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FD</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -906,26 +814,85 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サーバと接続したタイミングに未送信の履歴データを送信する。</t>
+    <t>4.3～4.10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>監視装置終了</t>
+    <rPh sb="0" eb="6">
+      <t>カn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>監視装置起動</t>
+    <rPh sb="0" eb="6">
+      <t>カn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各機能起動</t>
+    <rPh sb="0" eb="5">
+      <t>カクk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各機能終了</t>
+    <rPh sb="0" eb="5">
+      <t>カクk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各機能を終了する。</t>
+    <rPh sb="0" eb="3">
+      <t>カクk</t>
+    </rPh>
     <rPh sb="4" eb="6">
+      <t>シュウリョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トレンドデータ収集</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装置設定値を取得し、各機能を起動する。</t>
+    <rPh sb="2" eb="5">
+      <t>ソウチセ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>カクk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバ接続時に未送信の履歴データを送信する。</t>
+    <rPh sb="3" eb="5">
       <t>セツゾク</t>
     </rPh>
-    <rPh sb="14" eb="15">
+    <rPh sb="5" eb="6">
+      <t>z</t>
+    </rPh>
+    <rPh sb="7" eb="8">
       <t>ミ</t>
     </rPh>
-    <rPh sb="15" eb="17">
+    <rPh sb="8" eb="10">
       <t>ソウシン</t>
     </rPh>
-    <rPh sb="18" eb="20">
+    <rPh sb="11" eb="13">
       <t>リレキ</t>
     </rPh>
-    <rPh sb="24" eb="26">
+    <rPh sb="17" eb="19">
       <t>ソウシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>4.3～4.10</t>
+    <t>装置設定変更</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1093,7 +1060,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1153,6 +1120,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1492,22 +1462,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G30:G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="64" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.25" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="2"/>
+    <col min="8" max="8" width="28.1640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.15">
@@ -1531,10 +1501,10 @@
         <v>4</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
@@ -1557,25 +1527,25 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="M3" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="N3" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L3" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="N3" s="18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="2:14" ht="28" x14ac:dyDescent="0.15">
       <c r="B4" s="11">
         <f>ROW(B4)-3</f>
         <v>1</v>
@@ -1587,11 +1557,11 @@
         <v>6</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="17">
@@ -1603,9 +1573,9 @@
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="2:14" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:14" ht="28" x14ac:dyDescent="0.15">
       <c r="B5" s="11">
-        <f t="shared" ref="B5:B30" si="0">ROW(B5)-3</f>
+        <f t="shared" ref="B5:B32" si="0">ROW(B5)-3</f>
         <v>2</v>
       </c>
       <c r="C5" s="12"/>
@@ -1617,7 +1587,7 @@
         <v>23</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="17">
@@ -1629,7 +1599,7 @@
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="2:14" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:14" ht="28" x14ac:dyDescent="0.15">
       <c r="B6" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1641,7 +1611,7 @@
         <v>24</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="17">
@@ -1653,7 +1623,7 @@
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:14" ht="42" x14ac:dyDescent="0.15">
       <c r="B7" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1665,7 +1635,7 @@
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="17">
@@ -1677,7 +1647,7 @@
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:14" ht="42" x14ac:dyDescent="0.15">
       <c r="B8" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1689,10 +1659,10 @@
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I8" s="17">
         <v>4.8</v>
@@ -1703,7 +1673,7 @@
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="2:14" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:14" ht="28" x14ac:dyDescent="0.15">
       <c r="B9" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1715,7 +1685,7 @@
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="17">
@@ -1727,7 +1697,7 @@
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="2:14" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:14" ht="28" x14ac:dyDescent="0.15">
       <c r="B10" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1739,11 +1709,11 @@
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
@@ -1751,7 +1721,7 @@
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
     </row>
-    <row r="11" spans="2:14" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:14" ht="28" x14ac:dyDescent="0.15">
       <c r="B11" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1765,7 +1735,7 @@
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="17">
@@ -1777,7 +1747,7 @@
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="2:14" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:14" ht="28" x14ac:dyDescent="0.15">
       <c r="B12" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1789,7 +1759,7 @@
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="17">
@@ -1801,7 +1771,7 @@
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="2:14" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:14" ht="28" x14ac:dyDescent="0.15">
       <c r="B13" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1813,7 +1783,7 @@
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="17">
@@ -1825,7 +1795,7 @@
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
     </row>
-    <row r="14" spans="2:14" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:14" ht="28" x14ac:dyDescent="0.15">
       <c r="B14" s="11">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1839,7 +1809,7 @@
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="17">
@@ -1947,7 +1917,7 @@
       <c r="M18" s="17"/>
       <c r="N18" s="17"/>
     </row>
-    <row r="19" spans="2:14" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:14" ht="28" x14ac:dyDescent="0.15">
       <c r="B19" s="11">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1959,7 +1929,7 @@
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="17"/>
@@ -1983,7 +1953,7 @@
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="17"/>
@@ -2029,7 +1999,7 @@
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="17"/>
@@ -2075,7 +2045,7 @@
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="17"/>
@@ -2099,7 +2069,7 @@
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="17"/>
@@ -2117,15 +2087,17 @@
       <c r="C26" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H26" s="13"/>
+      <c r="D26" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" s="22"/>
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
@@ -2140,12 +2112,12 @@
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="13" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="17"/>
@@ -2155,23 +2127,21 @@
       <c r="M27" s="17"/>
       <c r="N27" s="17"/>
     </row>
-    <row r="28" spans="2:14" ht="175.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B28" s="11">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>66</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="H28" s="13"/>
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
@@ -2186,12 +2156,12 @@
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="13" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="17"/>
@@ -2201,25 +2171,21 @@
       <c r="M29" s="17"/>
       <c r="N29" s="17"/>
     </row>
-    <row r="30" spans="2:14" ht="27" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B30" s="11">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>35</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>67</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="H30" s="13"/>
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
@@ -2227,13 +2193,22 @@
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B31" s="12"/>
+    <row r="31" spans="2:14" ht="28" x14ac:dyDescent="0.15">
+      <c r="B31" s="11">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
       <c r="C31" s="15"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
+      <c r="D31" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="F31" s="12"/>
-      <c r="G31" s="13"/>
+      <c r="G31" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="H31" s="13"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
@@ -2243,12 +2218,21 @@
       <c r="N31" s="17"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B32" s="12"/>
+      <c r="B32" s="11">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
       <c r="C32" s="15"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
+      <c r="D32" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>79</v>
+      </c>
       <c r="F32" s="12"/>
-      <c r="G32" s="13"/>
+      <c r="G32" s="13" t="s">
+        <v>80</v>
+      </c>
       <c r="H32" s="13"/>
       <c r="I32" s="17"/>
       <c r="J32" s="17"/>
